--- a/DesignerConfigs/Datas/common/dummy.xlsx
+++ b/DesignerConfigs/Datas/common/dummy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NikkiP4_D\X6Game\DesignerConfigs\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A96599B2-D4C8-45AC-8490-2ED9CB169BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968A6EF5-4A07-4192-B20D-BBBF45F65DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B8166186-183E-48E2-87C0-8C2FA5208538}"/>
+    <workbookView xWindow="30825" yWindow="2295" windowWidth="25335" windowHeight="12915" xr2:uid="{B8166186-183E-48E2-87C0-8C2FA5208538}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2223F90-B250-4918-8298-F1BA2F1E4509}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,9 +408,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
